--- a/周计划表.xlsx
+++ b/周计划表.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,86 +20,237 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>时间点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>反馈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>阅读完成《Don't make me think》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读完成《高效能人士的七个习惯》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读后感</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.10.23</t>
-  </si>
-  <si>
-    <t>2017.10.30</t>
-  </si>
-  <si>
-    <t>2017.11.06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.11.13</t>
-  </si>
-  <si>
-    <t>2017.11.27</t>
-  </si>
-  <si>
-    <t>2017.12.04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.12.11</t>
-  </si>
-  <si>
-    <t>2017.12.18</t>
-  </si>
-  <si>
-    <t>2017.12.25</t>
-  </si>
-  <si>
-    <t>2017.10.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17-18学年学习计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读完成《Don't make me think》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有道云笔记总结</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读完成《高效能人士的七个习惯》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>读后感</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弥补“批判性思维”前几节课程知识</t>
+    <t>精读《用户体验要素》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有道云笔记总结/思维导图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立设计岗位知识体系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各方向设计师技能树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读完成《简约至上》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读完成《交互设计沉思录》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读完成《写给大家看的设计书》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实践之前学习到的交互设计知识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成中文版触屏版改版交互设计任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读完成《交互设计精髓》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读完成经管类书籍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结行业内的热点新闻、事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月设计行业新闻整理分享至部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升设计团队氛围，锻炼设计师表达总结能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百言堂分享</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定期发布文章至博客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新搭建自己的个人博客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一季度总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二季度总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理总结报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回顾一年内管理方向的得失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回顾半年内管理方向的得失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去百卓销售部门轮岗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮岗总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互方向学习回顾总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示中文版网站用户体验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过运营相关指标验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立中文版设计规范</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一份完整的设计规范</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充设计团队人力，淘汰不合格设计师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置合理的人员梯队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牵头建立百卓UED网站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百卓UED网站交互稿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划17-18学年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习计划表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读完成《设计心理学-Ⅰ》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读完成《设计心理学-Ⅱ》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读完成《设计心理学-Ⅲ》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读完成《设计心理学-Ⅳ》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升百卓品牌形象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起草百卓吉祥物设计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +288,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,13 +300,34 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -165,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -173,6 +345,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -454,120 +643,577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="48.375" customWidth="1"/>
-    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A6" s="6">
+        <v>2017.11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A11" s="4">
+        <v>2017.12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A16" s="6">
+        <v>2018.1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A21" s="4">
+        <v>2018.2</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C26" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A30"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -579,9 +1225,10 @@
       <selection sqref="A1:I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/周计划表.xlsx
+++ b/周计划表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>时间点</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,14 +30,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阅读完成《Don't make me think》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读完成《高效能人士的七个习惯》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>读后感</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -82,10 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2017.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>实践之前学习到的交互设计知识</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -138,14 +126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>定期发布文章至博客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新搭建自己的个人博客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>一季度总结</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -211,14 +191,6 @@
   </si>
   <si>
     <t>百卓UED网站交互稿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划17-18学年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习计划表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -348,20 +320,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -643,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -663,556 +635,505 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A2" s="9">
+        <v>2017.11</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="4"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="4"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="4"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="6">
-        <v>2017.11</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="8">
+        <v>2017.12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A12" s="9">
+        <v>2018.1</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="4">
-        <v>2017.12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
+      <c r="A15" s="9"/>
+      <c r="B15" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="6">
-        <v>2018.1</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="A17" s="8">
+        <v>2018.2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A21" s="4">
-        <v>2018.2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A22" s="4"/>
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A24" s="4"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A25" s="4"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="7"/>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>24</v>
+    <row r="28" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>32</v>
+    <row r="29" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A33" s="9"/>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A34" s="4"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A35" s="4"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A38" s="8"/>
+      <c r="B38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A39" s="8"/>
+      <c r="B39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A40" s="8"/>
+      <c r="B40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A42" s="9"/>
+      <c r="B42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A43" s="9"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A44" s="9"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A30"/>
+  <mergeCells count="9">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
